--- a/Прайс-листы,каталоги/Прайс лист Simfer  04.04.2019.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer  04.04.2019.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" activeTab="2"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Обогреватели!$A$4:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Соло плиты'!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -7828,7 +7833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="33">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -8129,10 +8134,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9539,9 +9548,6 @@
     <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9561,6 +9567,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="14" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9811,6 +9820,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -9843,7 +9855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9866,14 +9878,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9913,7 +9925,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9936,14 +9948,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9983,7 +9995,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10006,14 +10018,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10053,7 +10065,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10076,14 +10088,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10123,7 +10135,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10146,14 +10158,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10191,7 +10203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10214,14 +10226,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10259,7 +10271,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10282,14 +10294,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10327,7 +10339,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10350,14 +10362,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10395,7 +10407,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10418,14 +10430,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10463,7 +10475,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10486,14 +10498,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10531,7 +10543,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10554,14 +10566,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10599,7 +10611,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10622,14 +10634,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10667,7 +10679,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10690,14 +10702,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10735,7 +10747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10758,14 +10770,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10803,7 +10815,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10826,14 +10838,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10871,7 +10883,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10894,14 +10906,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10939,7 +10951,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10962,14 +10974,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11007,7 +11019,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11030,14 +11042,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11075,7 +11087,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11098,14 +11110,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11143,7 +11155,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11166,14 +11178,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11211,7 +11223,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11234,14 +11246,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11279,7 +11291,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11302,14 +11314,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11347,7 +11359,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11370,14 +11382,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11415,7 +11427,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11438,14 +11450,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11483,7 +11495,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11506,14 +11518,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11551,7 +11563,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11574,14 +11586,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11619,7 +11631,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11642,14 +11654,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11687,7 +11699,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11710,14 +11722,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11755,7 +11767,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11778,14 +11790,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11823,7 +11835,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11846,14 +11858,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11891,7 +11903,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11914,14 +11926,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11959,7 +11971,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11982,14 +11994,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12032,7 +12044,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12055,14 +12067,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12100,7 +12112,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12123,14 +12135,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12168,7 +12180,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12191,14 +12203,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12236,7 +12248,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12259,14 +12271,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12304,7 +12316,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12327,14 +12339,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12372,7 +12384,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12395,14 +12407,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12440,7 +12452,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12463,14 +12475,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12508,7 +12520,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12531,14 +12543,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12576,7 +12588,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12599,14 +12611,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12644,7 +12656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12667,14 +12679,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12712,7 +12724,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12735,14 +12747,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12780,7 +12792,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12803,14 +12815,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12848,7 +12860,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12871,14 +12883,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12916,7 +12928,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12939,14 +12951,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12984,7 +12996,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13007,14 +13019,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13052,7 +13064,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13075,14 +13087,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13120,7 +13132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13143,14 +13155,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13188,7 +13200,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13211,14 +13223,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13256,7 +13268,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13279,14 +13291,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13324,7 +13336,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13347,14 +13359,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13392,7 +13404,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13415,14 +13427,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13460,7 +13472,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13483,14 +13495,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13528,7 +13540,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13551,14 +13563,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13596,7 +13608,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13619,14 +13631,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13664,7 +13676,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13687,14 +13699,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13732,7 +13744,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13755,14 +13767,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13800,7 +13812,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13823,14 +13835,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13868,7 +13880,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13891,14 +13903,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13936,7 +13948,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13959,14 +13971,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14004,7 +14016,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14027,14 +14039,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14072,7 +14084,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14095,14 +14107,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14140,7 +14152,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14163,14 +14175,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14208,7 +14220,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14231,14 +14243,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14276,7 +14288,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14299,14 +14311,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14344,7 +14356,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14367,14 +14379,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14412,7 +14424,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14435,14 +14447,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14480,7 +14492,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14503,14 +14515,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14548,7 +14560,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14571,14 +14583,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14616,7 +14628,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14639,14 +14651,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14684,7 +14696,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14707,14 +14719,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14752,7 +14764,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14775,14 +14787,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14820,7 +14832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14843,14 +14855,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14888,7 +14900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14911,14 +14923,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14956,7 +14968,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14979,14 +14991,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15024,7 +15036,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15047,14 +15059,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15092,7 +15104,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15115,14 +15127,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15160,7 +15172,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15183,14 +15195,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15228,7 +15240,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15251,14 +15263,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15296,7 +15308,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15319,14 +15331,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15364,7 +15376,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15387,14 +15399,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15432,7 +15444,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15455,14 +15467,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15500,7 +15512,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15523,14 +15535,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15568,7 +15580,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15591,14 +15603,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15636,7 +15648,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15659,14 +15671,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15704,7 +15716,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15727,14 +15739,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15772,7 +15784,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15795,14 +15807,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15840,7 +15852,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15863,14 +15875,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15908,7 +15920,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15931,14 +15943,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15976,7 +15988,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15999,14 +16011,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16044,7 +16056,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16067,14 +16079,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16112,7 +16124,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16135,14 +16147,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16180,7 +16192,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16203,14 +16215,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16248,7 +16260,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16271,14 +16283,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16316,7 +16328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16339,14 +16351,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16384,7 +16396,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16407,14 +16419,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16452,7 +16464,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16475,14 +16487,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16520,7 +16532,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16543,14 +16555,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16588,7 +16600,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16611,14 +16623,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16656,7 +16668,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16679,14 +16691,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16724,7 +16736,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16747,14 +16759,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16792,7 +16804,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16815,14 +16827,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16860,7 +16872,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16883,14 +16895,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16928,7 +16940,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16951,14 +16963,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16996,7 +17008,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17019,14 +17031,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17064,7 +17076,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17087,14 +17099,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17132,7 +17144,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17155,14 +17167,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17200,7 +17212,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17223,14 +17235,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17268,7 +17280,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17291,14 +17303,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17336,7 +17348,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17359,14 +17371,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17404,7 +17416,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17427,14 +17439,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17472,7 +17484,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17495,14 +17507,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17540,7 +17552,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17563,14 +17575,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17608,7 +17620,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17631,14 +17643,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17676,7 +17688,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17699,14 +17711,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17744,7 +17756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17767,14 +17779,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17812,7 +17824,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17835,14 +17847,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17880,7 +17892,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17903,14 +17915,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17948,7 +17960,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17971,14 +17983,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18016,7 +18028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18039,14 +18051,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18084,7 +18096,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18107,14 +18119,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18152,7 +18164,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18175,14 +18187,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18220,7 +18232,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18243,14 +18255,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18288,7 +18300,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18311,14 +18323,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18356,7 +18368,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18379,14 +18391,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18424,7 +18436,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18447,14 +18459,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18492,7 +18504,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18515,14 +18527,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18560,7 +18572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18583,14 +18595,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18628,7 +18640,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18651,14 +18663,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18696,7 +18708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18719,14 +18731,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18764,7 +18776,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18787,14 +18799,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18832,7 +18844,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18855,14 +18867,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18905,7 +18917,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18928,14 +18940,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18973,7 +18985,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18996,14 +19008,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19041,7 +19053,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19064,14 +19076,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19109,7 +19121,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19132,14 +19144,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19177,7 +19189,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19200,14 +19212,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19245,7 +19257,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19268,14 +19280,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19313,7 +19325,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19336,14 +19348,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19381,7 +19393,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19404,14 +19416,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19449,7 +19461,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19472,14 +19484,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19517,7 +19529,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19540,14 +19552,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19585,7 +19597,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19608,14 +19620,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19653,7 +19665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19676,14 +19688,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19721,7 +19733,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19744,14 +19756,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19789,7 +19801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19812,14 +19824,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19857,7 +19869,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19880,14 +19892,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19925,7 +19937,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19948,14 +19960,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19993,7 +20005,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20016,14 +20028,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20061,7 +20073,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20084,14 +20096,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20129,7 +20141,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20152,14 +20164,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20197,7 +20209,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20220,14 +20232,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20265,7 +20277,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20288,14 +20300,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20333,7 +20345,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20356,14 +20368,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20401,7 +20413,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20424,14 +20436,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20469,7 +20481,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20492,14 +20504,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20537,7 +20549,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20560,14 +20572,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20605,7 +20617,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20628,14 +20640,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20673,7 +20685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20696,14 +20708,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20741,7 +20753,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20764,14 +20776,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20809,7 +20821,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20832,14 +20844,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20877,7 +20889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20900,14 +20912,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20945,7 +20957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20968,14 +20980,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21018,7 +21030,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21041,14 +21053,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21086,7 +21098,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21109,14 +21121,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21154,7 +21166,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21177,14 +21189,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21222,7 +21234,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21245,14 +21257,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21290,7 +21302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21313,14 +21325,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21358,7 +21370,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21381,14 +21393,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21426,7 +21438,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21449,14 +21461,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21494,7 +21506,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21517,14 +21529,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21562,7 +21574,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21585,14 +21597,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21630,7 +21642,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21653,14 +21665,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21698,7 +21710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21721,14 +21733,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21766,7 +21778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21789,14 +21801,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21834,7 +21846,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21857,14 +21869,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21902,7 +21914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21925,14 +21937,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21970,7 +21982,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21993,14 +22005,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22038,7 +22050,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22061,14 +22073,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22106,7 +22118,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22129,14 +22141,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22174,7 +22186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22197,14 +22209,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22242,7 +22254,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22265,14 +22277,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22310,7 +22322,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22333,14 +22345,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22378,7 +22390,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22401,14 +22413,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22446,7 +22458,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22469,14 +22481,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22514,7 +22526,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22537,14 +22549,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22582,7 +22594,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22605,14 +22617,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22655,7 +22667,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22678,14 +22690,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22723,7 +22735,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22746,14 +22758,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22791,7 +22803,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22814,14 +22826,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22859,7 +22871,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22882,14 +22894,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23161,14 +23173,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -24531,7 +24543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -28242,12 +28254,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -29494,7 +29506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -30393,7 +30405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -30581,7 +30593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView topLeftCell="A271" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -30630,15 +30642,15 @@
       <c r="U1" s="99"/>
     </row>
     <row r="2" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="100" t="s">
         <v>789</v>
       </c>
@@ -30665,20 +30677,20 @@
       <c r="U2" s="99"/>
     </row>
     <row r="3" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="100" t="s">
         <v>792</v>
       </c>
-      <c r="L3" s="108"/>
+      <c r="L3" s="107"/>
       <c r="M3" s="100" t="s">
         <v>789</v>
       </c>
@@ -30735,24 +30747,24 @@
       <c r="I4" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
       <c r="N4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
       <c r="Q4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
       <c r="T4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="U4" s="101"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="98" t="s">
@@ -47732,6 +47744,25 @@
     <row r="65536" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A190:I190"/>
+    <mergeCell ref="A193:I193"/>
+    <mergeCell ref="A195:I195"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A186:I186"/>
     <mergeCell ref="A218:I218"/>
     <mergeCell ref="A262:I262"/>
     <mergeCell ref="P1:R1"/>
@@ -47748,25 +47779,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A186:I186"/>
-    <mergeCell ref="A190:I190"/>
-    <mergeCell ref="A193:I193"/>
-    <mergeCell ref="A195:I195"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer  04.04.2019.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer  04.04.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE94A3F-0F03-4F8E-B735-C408BD39447F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" activeTab="2"/>
+    <workbookView xWindow="6990" yWindow="750" windowWidth="19605" windowHeight="14190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Соло плиты" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Обогреватели!$A$4:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Соло плиты'!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -7833,7 +7834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="33">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -9542,10 +9543,13 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9569,148 +9573,145 @@
     <xf numFmtId="0" fontId="43" fillId="7" borderId="14" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="15" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="239">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
-    <cellStyle name="Calc Currency (0)" xfId="28"/>
-    <cellStyle name="Calc Currency (2)" xfId="29"/>
-    <cellStyle name="Calc Percent (0)" xfId="30"/>
-    <cellStyle name="Calc Percent (1)" xfId="31"/>
-    <cellStyle name="Calc Percent (2)" xfId="32"/>
-    <cellStyle name="Calc Units (0)" xfId="33"/>
-    <cellStyle name="Calc Units (1)" xfId="34"/>
-    <cellStyle name="Calc Units (2)" xfId="35"/>
-    <cellStyle name="category" xfId="36"/>
-    <cellStyle name="Comma [00]" xfId="37"/>
-    <cellStyle name="comma zerodec" xfId="38"/>
-    <cellStyle name="Currency [00]" xfId="39"/>
-    <cellStyle name="Currency1" xfId="40"/>
-    <cellStyle name="Date Short" xfId="41"/>
-    <cellStyle name="DELTA" xfId="42"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44"/>
-    <cellStyle name="Eingabefeld" xfId="45"/>
-    <cellStyle name="Eingaben" xfId="46"/>
-    <cellStyle name="EingabenWr" xfId="47"/>
-    <cellStyle name="Enter Currency (0)" xfId="48"/>
-    <cellStyle name="Enter Currency (2)" xfId="49"/>
-    <cellStyle name="Enter Units (0)" xfId="50"/>
-    <cellStyle name="Enter Units (1)" xfId="51"/>
-    <cellStyle name="Enter Units (2)" xfId="52"/>
-    <cellStyle name="Ergebnisse" xfId="53"/>
-    <cellStyle name="Euro" xfId="54"/>
-    <cellStyle name="Grey" xfId="55"/>
-    <cellStyle name="HEADER" xfId="56"/>
-    <cellStyle name="Header1" xfId="57"/>
-    <cellStyle name="Header2" xfId="58"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
-    <cellStyle name="iles|_x0005_h" xfId="70"/>
-    <cellStyle name="Input [yellow]" xfId="71"/>
-    <cellStyle name="les" xfId="72"/>
-    <cellStyle name="Link Currency (0)" xfId="73"/>
-    <cellStyle name="Link Currency (2)" xfId="74"/>
-    <cellStyle name="Link Units (0)" xfId="75"/>
-    <cellStyle name="Link Units (1)" xfId="76"/>
-    <cellStyle name="Link Units (2)" xfId="77"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79"/>
-    <cellStyle name="Model" xfId="80"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
-    <cellStyle name="Normal - Style1" xfId="83"/>
-    <cellStyle name="Normal 11" xfId="84"/>
-    <cellStyle name="Normal 133" xfId="85"/>
-    <cellStyle name="Normal 2" xfId="86"/>
-    <cellStyle name="Normal 2 2" xfId="87"/>
-    <cellStyle name="Normal 2 2 2" xfId="88"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
-    <cellStyle name="Normal 2 2 3" xfId="91"/>
-    <cellStyle name="Normal 2 3" xfId="92"/>
-    <cellStyle name="Normal 2 3 2" xfId="93"/>
-    <cellStyle name="Normal 2 3 3" xfId="94"/>
-    <cellStyle name="Normal 2 4" xfId="95"/>
-    <cellStyle name="Normal 2 4 2" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="97"/>
-    <cellStyle name="Normal 3" xfId="98"/>
-    <cellStyle name="Normal 3 2" xfId="99"/>
-    <cellStyle name="Normal 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 3 3" xfId="101"/>
-    <cellStyle name="Normal 3 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 3 3" xfId="103"/>
-    <cellStyle name="Normal 3 4" xfId="104"/>
-    <cellStyle name="Normal 3 4 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 3" xfId="106"/>
-    <cellStyle name="Normal 4" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 7" xfId="110"/>
-    <cellStyle name="Normal 7 2" xfId="111"/>
-    <cellStyle name="Normal 8" xfId="112"/>
-    <cellStyle name="Normal 9" xfId="113"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
-    <cellStyle name="ParaBirimi 2" xfId="115"/>
-    <cellStyle name="Percent [0]" xfId="116"/>
-    <cellStyle name="Percent [00]" xfId="117"/>
-    <cellStyle name="Percent [2]" xfId="118"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120"/>
-    <cellStyle name="PrePop Units (0)" xfId="121"/>
-    <cellStyle name="PrePop Units (1)" xfId="122"/>
-    <cellStyle name="PrePop Units (2)" xfId="123"/>
-    <cellStyle name="Prozent 2" xfId="124"/>
-    <cellStyle name="R?" xfId="125"/>
-    <cellStyle name="sche|_x0005_" xfId="126"/>
-    <cellStyle name="Standard 2" xfId="127"/>
-    <cellStyle name="Standard 2 2" xfId="128"/>
-    <cellStyle name="Standard 3" xfId="129"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
-    <cellStyle name="subhead" xfId="131"/>
-    <cellStyle name="Text Indent A" xfId="132"/>
-    <cellStyle name="Text Indent B" xfId="133"/>
-    <cellStyle name="Text Indent C" xfId="134"/>
-    <cellStyle name="Ueberschriften" xfId="135"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
-    <cellStyle name="Yüzde 2" xfId="137"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -9720,99 +9721,99 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147"/>
-    <cellStyle name="Денежный 2" xfId="148"/>
-    <cellStyle name="Денежный 3" xfId="149"/>
+    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156"/>
+    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158"/>
-    <cellStyle name="Обычный 10 2" xfId="159"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160"/>
-    <cellStyle name="Обычный 14" xfId="161"/>
-    <cellStyle name="Обычный 15" xfId="162"/>
-    <cellStyle name="Обычный 2" xfId="163"/>
-    <cellStyle name="Обычный 2 2" xfId="164"/>
-    <cellStyle name="Обычный 2 3" xfId="165"/>
-    <cellStyle name="Обычный 2 4" xfId="166"/>
-    <cellStyle name="Обычный 3" xfId="167"/>
-    <cellStyle name="Обычный 3 2" xfId="168"/>
-    <cellStyle name="Обычный 3 3" xfId="169"/>
-    <cellStyle name="Обычный 4" xfId="170"/>
-    <cellStyle name="Обычный 4 2" xfId="171"/>
-    <cellStyle name="Обычный 4 3" xfId="172"/>
-    <cellStyle name="Обычный 5" xfId="173"/>
-    <cellStyle name="Обычный 5 2" xfId="174"/>
-    <cellStyle name="Обычный_0" xfId="175"/>
+    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179"/>
+    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
     <cellStyle name="Процентный" xfId="180" builtinId="5"/>
-    <cellStyle name="Процентный 2" xfId="181"/>
-    <cellStyle name="Процентный 3" xfId="182"/>
-    <cellStyle name="Процентный 3 2" xfId="183"/>
-    <cellStyle name="Процентный 3 3" xfId="184"/>
-    <cellStyle name="Процентный 4" xfId="185"/>
+    <cellStyle name="Процентный 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Процентный 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Процентный 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Процентный 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Процентный 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Связанная ячейка" xfId="186" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="187" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="188"/>
-    <cellStyle name="Финансовый 3" xfId="189"/>
-    <cellStyle name="Финансовый 9" xfId="190"/>
+    <cellStyle name="Финансовый 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Финансовый 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Финансовый 9" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Хороший" xfId="191" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="195"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="196"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="197"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="198"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="199"/>
-    <cellStyle name="백분율 2" xfId="200"/>
-    <cellStyle name="백분율 3" xfId="201"/>
-    <cellStyle name="백분율 3 2" xfId="202"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="203"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="204"/>
-    <cellStyle name="쉼표 [0] 2" xfId="205"/>
-    <cellStyle name="쉼표 [0] 3" xfId="206"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="207"/>
-    <cellStyle name="스타일 1" xfId="208"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="209"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="210"/>
-    <cellStyle name="콤마_0009-1" xfId="211"/>
-    <cellStyle name="표준 2" xfId="212"/>
-    <cellStyle name="표준 2 2" xfId="213"/>
-    <cellStyle name="표준 3" xfId="214"/>
-    <cellStyle name="표준 3 2" xfId="215"/>
-    <cellStyle name="一般_家樂福" xfId="216"/>
-    <cellStyle name="千分位[0]_laroux" xfId="217"/>
-    <cellStyle name="千分位_laroux" xfId="218"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="219"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="220"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="221"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="222"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="223"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="224"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="225"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="226"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="227"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="228"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="229"/>
-    <cellStyle name="常规_Sheet1" xfId="230"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="231"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="232"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="233"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="234"/>
-    <cellStyle name="貨幣_laroux" xfId="235"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="236"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="237"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="238"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="백분율 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="백분율 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="백분율 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="스타일 1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="콤마_0009-1" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="표준 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="표준 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="표준 3" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="표준 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="一般_家樂福" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="千分位[0]_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="千分位_laroux" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="貨幣_laroux" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="238" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9846,6 +9847,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="199113" name="Рисунок 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9090300}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -9916,6 +9922,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="199114" name="Рисунок 12">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA090300}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -9986,6 +9997,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="199115" name="Рисунок 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB090300}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -10056,6 +10072,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="199116" name="Рисунок 22">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC090300}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -10126,6 +10147,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="199117" name="Рисунок 24">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD090300}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -10194,7 +10220,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199118" name="Рисунок 26"/>
+        <xdr:cNvPr id="199118" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10262,7 +10294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199119" name="Рисунок 29"/>
+        <xdr:cNvPr id="199119" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10330,7 +10368,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199120" name="Рисунок 31"/>
+        <xdr:cNvPr id="199120" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10398,7 +10442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199121" name="Рисунок 34"/>
+        <xdr:cNvPr id="199121" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10466,7 +10516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199122" name="Рисунок 11"/>
+        <xdr:cNvPr id="199122" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10534,7 +10590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199123" name="Рисунок 13"/>
+        <xdr:cNvPr id="199123" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10602,7 +10664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199124" name="Рисунок 16"/>
+        <xdr:cNvPr id="199124" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10670,7 +10738,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199125" name="Рисунок 36"/>
+        <xdr:cNvPr id="199125" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10738,7 +10812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199126" name="Рисунок 38"/>
+        <xdr:cNvPr id="199126" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10806,7 +10886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199127" name="Рисунок 42"/>
+        <xdr:cNvPr id="199127" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10874,7 +10960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199128" name="Рисунок 50"/>
+        <xdr:cNvPr id="199128" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10942,7 +11034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199129" name="Рисунок 55"/>
+        <xdr:cNvPr id="199129" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11010,7 +11108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199130" name="Рисунок 57"/>
+        <xdr:cNvPr id="199130" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11078,7 +11182,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199131" name="Рисунок 59"/>
+        <xdr:cNvPr id="199131" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11146,7 +11256,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199132" name="Рисунок 56"/>
+        <xdr:cNvPr id="199132" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11214,7 +11330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199133" name="Рисунок 57"/>
+        <xdr:cNvPr id="199133" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11282,7 +11404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199134" name="Рисунок 66"/>
+        <xdr:cNvPr id="199134" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11350,7 +11478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199135" name="Рисунок 59"/>
+        <xdr:cNvPr id="199135" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11418,7 +11552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199136" name="Рисунок 69"/>
+        <xdr:cNvPr id="199136" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11486,7 +11626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199137" name="Рисунок 74"/>
+        <xdr:cNvPr id="199137" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11554,7 +11700,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199138" name="Рисунок 32"/>
+        <xdr:cNvPr id="199138" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11622,7 +11774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199139" name="Рисунок 1"/>
+        <xdr:cNvPr id="199139" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11690,7 +11848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199140" name="Рисунок 2"/>
+        <xdr:cNvPr id="199140" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11758,7 +11922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199141" name="Рисунок 61"/>
+        <xdr:cNvPr id="199141" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11826,7 +11996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199142" name="Рисунок 4"/>
+        <xdr:cNvPr id="199142" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11894,7 +12070,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199143" name="Рисунок 6"/>
+        <xdr:cNvPr id="199143" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11962,7 +12144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199144" name="Рисунок 7"/>
+        <xdr:cNvPr id="199144" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8090300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12035,7 +12223,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201254" name="Рисунок 2"/>
+        <xdr:cNvPr id="201254" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12103,7 +12297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201255" name="Рисунок 2"/>
+        <xdr:cNvPr id="201255" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12171,7 +12371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201256" name="Рисунок 1"/>
+        <xdr:cNvPr id="201256" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12239,7 +12445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201257" name="Рисунок 31"/>
+        <xdr:cNvPr id="201257" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12307,7 +12519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201258" name="Рисунок 32"/>
+        <xdr:cNvPr id="201258" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12375,7 +12593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201259" name="Рисунок 33"/>
+        <xdr:cNvPr id="201259" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12443,7 +12667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201260" name="Рисунок 34"/>
+        <xdr:cNvPr id="201260" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12511,7 +12741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201261" name="Picture 7" descr="h3020D~1"/>
+        <xdr:cNvPr id="201261" name="Picture 7" descr="h3020D~1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12579,7 +12815,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201262" name="Picture 7" descr="h3020D~1"/>
+        <xdr:cNvPr id="201262" name="Picture 7" descr="h3020D~1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12647,7 +12889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201263" name="Resim 10"/>
+        <xdr:cNvPr id="201263" name="Resim 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12715,7 +12963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201264" name="Resim 14"/>
+        <xdr:cNvPr id="201264" name="Resim 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12783,7 +13037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201265" name="Рисунок 63"/>
+        <xdr:cNvPr id="201265" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12851,7 +13111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201266" name="Resim 11"/>
+        <xdr:cNvPr id="201266" name="Resim 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12919,7 +13185,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201267" name="Рисунок 43"/>
+        <xdr:cNvPr id="201267" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12987,7 +13259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201268" name="Рисунок 45"/>
+        <xdr:cNvPr id="201268" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13055,7 +13333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201269" name="Рисунок 46"/>
+        <xdr:cNvPr id="201269" name="Рисунок 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13123,7 +13407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201270" name="Рисунок 47"/>
+        <xdr:cNvPr id="201270" name="Рисунок 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13191,7 +13481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201271" name="Resim 53"/>
+        <xdr:cNvPr id="201271" name="Resim 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13259,7 +13555,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201272" name="Resim 54"/>
+        <xdr:cNvPr id="201272" name="Resim 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13327,7 +13629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201273" name="Resim 52"/>
+        <xdr:cNvPr id="201273" name="Resim 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -13395,7 +13703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201274" name="Resim 52"/>
+        <xdr:cNvPr id="201274" name="Resim 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -13463,7 +13777,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201275" name="Resim 53"/>
+        <xdr:cNvPr id="201275" name="Resim 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13531,7 +13851,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201276" name="Рисунок 53"/>
+        <xdr:cNvPr id="201276" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13599,7 +13925,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201277" name="Рисунок 54"/>
+        <xdr:cNvPr id="201277" name="Рисунок 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13667,7 +13999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201278" name="Рисунок 55"/>
+        <xdr:cNvPr id="201278" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13735,7 +14073,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201279" name="Рисунок 56"/>
+        <xdr:cNvPr id="201279" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13803,7 +14147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201280" name="Рисунок 57"/>
+        <xdr:cNvPr id="201280" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13871,7 +14221,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201281" name="Рисунок 59"/>
+        <xdr:cNvPr id="201281" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13939,7 +14295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201282" name="Рисунок 60"/>
+        <xdr:cNvPr id="201282" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14007,7 +14369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201283" name="Рисунок 61"/>
+        <xdr:cNvPr id="201283" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14075,7 +14443,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201284" name="Рисунок 62"/>
+        <xdr:cNvPr id="201284" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14143,7 +14517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201285" name="Рисунок 63"/>
+        <xdr:cNvPr id="201285" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14211,7 +14591,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201286" name="Рисунок 64"/>
+        <xdr:cNvPr id="201286" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14279,7 +14665,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201287" name="Рисунок 66"/>
+        <xdr:cNvPr id="201287" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14347,7 +14739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201288" name="Рисунок 67"/>
+        <xdr:cNvPr id="201288" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14415,7 +14813,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201289" name="Resim 9"/>
+        <xdr:cNvPr id="201289" name="Resim 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14483,7 +14887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201290" name="Рисунок 69"/>
+        <xdr:cNvPr id="201290" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14551,7 +14961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201291" name="Рисунок 1"/>
+        <xdr:cNvPr id="201291" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14619,7 +15035,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201292" name="Resim 57"/>
+        <xdr:cNvPr id="201292" name="Resim 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -14687,7 +15109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201293" name="Рисунок 65"/>
+        <xdr:cNvPr id="201293" name="Рисунок 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14755,7 +15183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201294" name="Рисунок 67"/>
+        <xdr:cNvPr id="201294" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14823,7 +15257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201295" name="Resim 57"/>
+        <xdr:cNvPr id="201295" name="Resim 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -14891,7 +15331,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201296" name="Picture 3"/>
+        <xdr:cNvPr id="201296" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14959,7 +15405,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201297" name="Resim 57"/>
+        <xdr:cNvPr id="201297" name="Resim 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15027,7 +15479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201298" name="Resim 7"/>
+        <xdr:cNvPr id="201298" name="Resim 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15095,7 +15553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201299" name="Рисунок 7"/>
+        <xdr:cNvPr id="201299" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15163,7 +15627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201300" name="Resim 51"/>
+        <xdr:cNvPr id="201300" name="Resim 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15231,7 +15701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201301" name="Рисунок 82"/>
+        <xdr:cNvPr id="201301" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15299,7 +15775,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201302" name="Resim 2"/>
+        <xdr:cNvPr id="201302" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15367,7 +15849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201303" name="Рисунок 84"/>
+        <xdr:cNvPr id="201303" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15435,7 +15923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201304" name="Resim 8"/>
+        <xdr:cNvPr id="201304" name="Resim 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15503,7 +15997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201305" name="Рисунок 86"/>
+        <xdr:cNvPr id="201305" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15571,7 +16071,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201306" name="Рисунок 87"/>
+        <xdr:cNvPr id="201306" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15639,7 +16145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201307" name="Рисунок 88"/>
+        <xdr:cNvPr id="201307" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15707,7 +16219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201308" name="Рисунок 89"/>
+        <xdr:cNvPr id="201308" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15775,7 +16293,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201309" name="Рисунок 90"/>
+        <xdr:cNvPr id="201309" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15843,7 +16367,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201310" name="Рисунок 91"/>
+        <xdr:cNvPr id="201310" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15911,7 +16441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201311" name="Рисунок 92"/>
+        <xdr:cNvPr id="201311" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15979,7 +16515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201312" name="Рисунок 94"/>
+        <xdr:cNvPr id="201312" name="Рисунок 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16047,7 +16589,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201313" name="Рисунок 95"/>
+        <xdr:cNvPr id="201313" name="Рисунок 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16115,7 +16663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201314" name="Рисунок 96"/>
+        <xdr:cNvPr id="201314" name="Рисунок 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16183,7 +16737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201315" name="Рисунок 97"/>
+        <xdr:cNvPr id="201315" name="Рисунок 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16251,7 +16811,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201316" name="Рисунок 98"/>
+        <xdr:cNvPr id="201316" name="Рисунок 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16319,7 +16885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201317" name="Рисунок 99"/>
+        <xdr:cNvPr id="201317" name="Рисунок 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16387,7 +16959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201318" name="Рисунок 100"/>
+        <xdr:cNvPr id="201318" name="Рисунок 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16455,7 +17033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201319" name="Рисунок 102"/>
+        <xdr:cNvPr id="201319" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16523,7 +17107,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201320" name="Рисунок 107"/>
+        <xdr:cNvPr id="201320" name="Рисунок 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16591,7 +17181,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201321" name="Рисунок 110"/>
+        <xdr:cNvPr id="201321" name="Рисунок 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16659,7 +17255,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201322" name="Рисунок 111"/>
+        <xdr:cNvPr id="201322" name="Рисунок 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16727,7 +17329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201323" name="Рисунок 113"/>
+        <xdr:cNvPr id="201323" name="Рисунок 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16795,7 +17403,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201324" name="Рисунок 142"/>
+        <xdr:cNvPr id="201324" name="Рисунок 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16863,7 +17477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201325" name="Рисунок 1"/>
+        <xdr:cNvPr id="201325" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16931,7 +17551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201326" name="Рисунок 23"/>
+        <xdr:cNvPr id="201326" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16999,7 +17625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201327" name="Рисунок 24"/>
+        <xdr:cNvPr id="201327" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17067,7 +17699,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201328" name="Рисунок 1"/>
+        <xdr:cNvPr id="201328" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17135,7 +17773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201329" name="Рисунок 3"/>
+        <xdr:cNvPr id="201329" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17203,7 +17847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201330" name="Рисунок 25"/>
+        <xdr:cNvPr id="201330" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17271,7 +17921,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201331" name="Resim 12"/>
+        <xdr:cNvPr id="201331" name="Resim 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17339,7 +17995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201332" name="Рисунок 126"/>
+        <xdr:cNvPr id="201332" name="Рисунок 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17407,7 +18069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201333" name="Рисунок 131"/>
+        <xdr:cNvPr id="201333" name="Рисунок 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17475,7 +18143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201334" name="Рисунок 12"/>
+        <xdr:cNvPr id="201334" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17543,7 +18217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201335" name="Рисунок 134"/>
+        <xdr:cNvPr id="201335" name="Рисунок 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17611,7 +18291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201336" name="Рисунок 108"/>
+        <xdr:cNvPr id="201336" name="Рисунок 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17679,7 +18365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201337" name="Рисунок 111"/>
+        <xdr:cNvPr id="201337" name="Рисунок 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17747,7 +18439,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201338" name="Рисунок 112"/>
+        <xdr:cNvPr id="201338" name="Рисунок 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17815,7 +18513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201339" name="Рисунок 2"/>
+        <xdr:cNvPr id="201339" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17883,7 +18587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201340" name="Рисунок 102"/>
+        <xdr:cNvPr id="201340" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17951,7 +18661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201341" name="Рисунок 102"/>
+        <xdr:cNvPr id="201341" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18019,7 +18735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201342" name="Рисунок 1"/>
+        <xdr:cNvPr id="201342" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18087,7 +18809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201343" name="Рисунок 1"/>
+        <xdr:cNvPr id="201343" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18155,7 +18883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201344" name="Рисунок 2"/>
+        <xdr:cNvPr id="201344" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18223,7 +18957,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201345" name="Рисунок 2"/>
+        <xdr:cNvPr id="201345" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18291,7 +19031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201346" name="Рисунок 4"/>
+        <xdr:cNvPr id="201346" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18359,7 +19105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201347" name="Рисунок 1"/>
+        <xdr:cNvPr id="201347" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18427,7 +19179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201348" name="Рисунок 2"/>
+        <xdr:cNvPr id="201348" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18495,7 +19253,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201349" name="Рисунок 3"/>
+        <xdr:cNvPr id="201349" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18563,7 +19327,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201350" name="Рисунок 109"/>
+        <xdr:cNvPr id="201350" name="Рисунок 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18631,7 +19401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201351" name="Рисунок 110"/>
+        <xdr:cNvPr id="201351" name="Рисунок 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18699,7 +19475,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201352" name="Рисунок 4"/>
+        <xdr:cNvPr id="201352" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18767,7 +19549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201353" name="Рисунок 5"/>
+        <xdr:cNvPr id="201353" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18835,7 +19623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201354" name="Рисунок 1"/>
+        <xdr:cNvPr id="201354" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A120300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18908,7 +19702,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200082" name="Resim 48"/>
+        <xdr:cNvPr id="200082" name="Resim 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000920D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18976,7 +19776,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200083" name="Resim 66"/>
+        <xdr:cNvPr id="200083" name="Resim 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000930D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19044,7 +19850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200084" name="Resim 109"/>
+        <xdr:cNvPr id="200084" name="Resim 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000940D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19112,7 +19924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200085" name="Resim 50"/>
+        <xdr:cNvPr id="200085" name="Resim 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000950D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19180,7 +19998,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200086" name="Resim 61"/>
+        <xdr:cNvPr id="200086" name="Resim 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000960D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19248,7 +20072,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200087" name="Resim 66"/>
+        <xdr:cNvPr id="200087" name="Resim 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000970D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19316,7 +20146,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200088" name="Resim 109"/>
+        <xdr:cNvPr id="200088" name="Resim 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000980D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19384,7 +20220,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200089" name="Resim 66"/>
+        <xdr:cNvPr id="200089" name="Resim 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000990D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19452,7 +20294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200090" name="Рисунок 37"/>
+        <xdr:cNvPr id="200090" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19520,7 +20368,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200091" name="Resim 18"/>
+        <xdr:cNvPr id="200091" name="Resim 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19588,7 +20442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200092" name="Picture 4" descr="8052 small copy"/>
+        <xdr:cNvPr id="200092" name="Picture 4" descr="8052 small copy">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19656,7 +20516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200093" name="Рисунок 1" descr="ELIKOR Интегра 60 молоко / бронза"/>
+        <xdr:cNvPr id="200093" name="Рисунок 1" descr="ELIKOR Интегра 60 молоко / бронза">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19724,7 +20590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200094" name="Resim 18"/>
+        <xdr:cNvPr id="200094" name="Resim 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19792,7 +20664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200095" name="Picture 1181"/>
+        <xdr:cNvPr id="200095" name="Picture 1181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19860,7 +20738,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200096" name="Picture 19"/>
+        <xdr:cNvPr id="200096" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A00D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19928,7 +20812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200097" name="Picture 4" descr="8052 small copy"/>
+        <xdr:cNvPr id="200097" name="Picture 4" descr="8052 small copy">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A10D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -19996,7 +20886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200098" name="Рисунок 2"/>
+        <xdr:cNvPr id="200098" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A20D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20064,7 +20960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200099" name="Picture 36"/>
+        <xdr:cNvPr id="200099" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A30D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20132,7 +21034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200100" name="Рисунок 1" descr="ELIKOR Интегра 60 молоко / бронза"/>
+        <xdr:cNvPr id="200100" name="Рисунок 1" descr="ELIKOR Интегра 60 молоко / бронза">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A40D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20200,7 +21108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200101" name="Resim 18"/>
+        <xdr:cNvPr id="200101" name="Resim 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A50D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20268,7 +21182,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200102" name="Рисунок 52"/>
+        <xdr:cNvPr id="200102" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A60D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20336,7 +21256,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200103" name="Рисунок 31"/>
+        <xdr:cNvPr id="200103" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A70D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20404,7 +21330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200104" name="Рисунок 32"/>
+        <xdr:cNvPr id="200104" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A80D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20472,7 +21404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200105" name="Рисунок 33"/>
+        <xdr:cNvPr id="200105" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A90D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20540,7 +21478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200106" name="Рисунок 2"/>
+        <xdr:cNvPr id="200106" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20608,7 +21552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200107" name="Рисунок 4"/>
+        <xdr:cNvPr id="200107" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20676,7 +21626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200108" name="Рисунок 2"/>
+        <xdr:cNvPr id="200108" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20744,7 +21700,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200109" name="Рисунок 3"/>
+        <xdr:cNvPr id="200109" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20812,7 +21774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200110" name="Рисунок 2"/>
+        <xdr:cNvPr id="200110" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20880,7 +21848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200111" name="Рисунок 14"/>
+        <xdr:cNvPr id="200111" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF0D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20948,7 +21922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200112" name="Рисунок 1"/>
+        <xdr:cNvPr id="200112" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B00D0300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21021,7 +22001,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201808" name="Рисунок 9"/>
+        <xdr:cNvPr id="201808" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21089,7 +22075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201809" name="Рисунок 3"/>
+        <xdr:cNvPr id="201809" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21157,7 +22149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201810" name="Рисунок 6"/>
+        <xdr:cNvPr id="201810" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21225,7 +22223,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201811" name="Рисунок 1"/>
+        <xdr:cNvPr id="201811" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21293,7 +22297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201812" name="Рисунок 1"/>
+        <xdr:cNvPr id="201812" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21361,7 +22371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201813" name="Рисунок 1"/>
+        <xdr:cNvPr id="201813" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21429,7 +22445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201814" name="Рисунок 2"/>
+        <xdr:cNvPr id="201814" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21497,7 +22519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201815" name="Рисунок 3"/>
+        <xdr:cNvPr id="201815" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21565,7 +22593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201816" name="Рисунок 2"/>
+        <xdr:cNvPr id="201816" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21633,7 +22667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201817" name="Рисунок 22"/>
+        <xdr:cNvPr id="201817" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21701,7 +22741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201818" name="Рисунок 3"/>
+        <xdr:cNvPr id="201818" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21769,7 +22815,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201819" name="Рисунок 3"/>
+        <xdr:cNvPr id="201819" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21837,7 +22889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201820" name="Рисунок 1"/>
+        <xdr:cNvPr id="201820" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21905,7 +22963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201821" name="Рисунок 3"/>
+        <xdr:cNvPr id="201821" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21973,7 +23037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201822" name="Рисунок 2"/>
+        <xdr:cNvPr id="201822" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22041,7 +23111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201823" name="Рисунок 1"/>
+        <xdr:cNvPr id="201823" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22109,7 +23185,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201824" name="Рисунок 5"/>
+        <xdr:cNvPr id="201824" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22177,7 +23259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201825" name="Рисунок 31"/>
+        <xdr:cNvPr id="201825" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22245,7 +23333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201826" name="Рисунок 33"/>
+        <xdr:cNvPr id="201826" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22313,7 +23407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201827" name="Рисунок 34"/>
+        <xdr:cNvPr id="201827" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000063140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22381,7 +23481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201828" name="Рисунок 35"/>
+        <xdr:cNvPr id="201828" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22449,7 +23555,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201829" name="Рисунок 1"/>
+        <xdr:cNvPr id="201829" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22517,7 +23629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201830" name="Рисунок 23"/>
+        <xdr:cNvPr id="201830" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22585,7 +23703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201831" name="Рисунок 24"/>
+        <xdr:cNvPr id="201831" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000067140300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22658,7 +23782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102135" name="Рисунок 1"/>
+        <xdr:cNvPr id="102135" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F78E0100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22726,7 +23856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102136" name="Рисунок 5"/>
+        <xdr:cNvPr id="102136" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F88E0100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22794,7 +23930,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102137" name="Рисунок 1"/>
+        <xdr:cNvPr id="102137" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F98E0100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22862,7 +24004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102138" name="Рисунок 5"/>
+        <xdr:cNvPr id="102138" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FA8E0100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -23180,7 +24328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -24530,7 +25678,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48"/>
+  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:D1"/>
@@ -24543,12 +25691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -25167,7 +26315,7 @@
       <c r="C22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="62" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="27">
@@ -28241,7 +29389,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J122"/>
+  <autoFilter ref="A3:J122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:I1"/>
@@ -28254,11 +29402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -29493,7 +30641,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C41"/>
+  <autoFilter ref="C1:C41" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:I1"/>
@@ -29506,7 +30654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -30391,7 +31539,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J30"/>
+  <autoFilter ref="A4:J30" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:I1"/>
@@ -30405,7 +31553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -30577,7 +31725,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J4"/>
+  <autoFilter ref="A4:J4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="6">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:H3"/>
@@ -30593,7 +31741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView topLeftCell="A271" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -30609,113 +31757,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>784</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="99" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="101" t="s">
         <v>785</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101" t="s">
         <v>786</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101" t="s">
         <v>787</v>
       </c>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99" t="s">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101" t="s">
         <v>788</v>
       </c>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
     </row>
     <row r="2" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="100" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="99" t="s">
         <v>789</v>
       </c>
       <c r="K2" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>791</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="101" t="s">
         <v>785</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99" t="s">
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101" t="s">
         <v>785</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101" t="s">
         <v>785</v>
       </c>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="99" t="s">
         <v>792</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="100" t="s">
+      <c r="L3" s="108"/>
+      <c r="M3" s="99" t="s">
         <v>789</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="99" t="s">
         <v>791</v>
       </c>
-      <c r="P3" s="100" t="s">
+      <c r="P3" s="99" t="s">
         <v>789</v>
       </c>
       <c r="Q3" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="99" t="s">
         <v>791</v>
       </c>
-      <c r="S3" s="100" t="s">
+      <c r="S3" s="99" t="s">
         <v>789</v>
       </c>
       <c r="T3" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="U3" s="100" t="s">
+      <c r="U3" s="99" t="s">
         <v>791</v>
       </c>
     </row>
@@ -30747,24 +31895,24 @@
       <c r="I4" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
       <c r="Q4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
       <c r="T4" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="U4" s="108"/>
+      <c r="U4" s="100"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="98" t="s">
@@ -47744,25 +48892,6 @@
     <row r="65536" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A190:I190"/>
-    <mergeCell ref="A193:I193"/>
-    <mergeCell ref="A195:I195"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A186:I186"/>
     <mergeCell ref="A218:I218"/>
     <mergeCell ref="A262:I262"/>
     <mergeCell ref="P1:R1"/>
@@ -47779,6 +48908,25 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A190:I190"/>
+    <mergeCell ref="A193:I193"/>
+    <mergeCell ref="A195:I195"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
